--- a/實驗.xlsx
+++ b/實驗.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maihongwei/Documents/github/network-scheduling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC24F394-770F-BA49-B1D1-6438D9DFC7A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946D3EB9-DBED-2F4E-802E-7C50B7CC6088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{454B99EB-65BE-EA45-BEBB-7FA253E31659}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{454B99EB-65BE-EA45-BEBB-7FA253E31659}"/>
   </bookViews>
   <sheets>
     <sheet name="結果" sheetId="1" r:id="rId1"/>
     <sheet name="參數" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>UE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>data_rate(kbpms)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QPSK</t>
   </si>
   <si>
@@ -78,6 +74,14 @@
   </si>
   <si>
     <t>RB=20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_rate(Mbps)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thoughput</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -85,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -122,6 +126,14 @@
       <color theme="1"/>
       <name val="Calibri Bold"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -145,7 +157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -156,6 +168,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -472,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1A233F-ECCA-0841-A988-9E9C3C077666}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -483,25 +501,28 @@
     <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27">
+    <row r="1" spans="1:18" ht="27">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -512,11 +533,14 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
@@ -527,11 +551,14 @@
       <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="M1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>0</v>
@@ -542,13 +569,16 @@
       <c r="Q1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="27">
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="27">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>8.3000000000000001E-3</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="C2" s="2">
         <v>20</v>
@@ -559,11 +589,14 @@
       <c r="E2" s="2">
         <v>0</v>
       </c>
+      <c r="F2" s="2">
+        <v>1.6200000000000001E-4</v>
+      </c>
       <c r="G2" s="2">
         <v>2</v>
       </c>
       <c r="H2" s="2">
-        <v>0.24199999999999999</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="I2" s="2">
         <v>20</v>
@@ -574,11 +607,14 @@
       <c r="K2" s="2">
         <v>0</v>
       </c>
+      <c r="L2" s="5">
+        <v>4.7199999999999994E-3</v>
+      </c>
       <c r="M2" s="2">
         <v>6</v>
       </c>
       <c r="N2" s="2">
-        <v>1.2E-2</v>
+        <v>0.11719</v>
       </c>
       <c r="O2" s="2">
         <v>20</v>
@@ -589,8 +625,11 @@
       <c r="Q2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="27">
+      <c r="R2" s="5">
+        <v>2.3438000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="27">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2">
@@ -602,6 +641,9 @@
       <c r="E3" s="2">
         <v>2.2575000000000001E-2</v>
       </c>
+      <c r="F3" s="2">
+        <v>3.166857E-4</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2">
@@ -613,8 +655,13 @@
       <c r="K3" s="2">
         <v>2.2624999999999999E-2</v>
       </c>
+      <c r="L3" s="5">
+        <v>9.2264199999999991E-3</v>
+      </c>
       <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="N3" s="2">
+        <v>1.1718999999999999E-4</v>
+      </c>
       <c r="O3" s="2">
         <v>40</v>
       </c>
@@ -624,8 +671,11 @@
       <c r="Q3" s="2">
         <v>6.0267000000000001E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="27">
+      <c r="R3" s="5">
+        <v>4.4050924108000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="27">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2">
@@ -637,6 +687,9 @@
       <c r="E4" s="2">
         <v>3.015E-2</v>
       </c>
+      <c r="F4" s="2">
+        <v>4.7134710000000003E-4</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2">
@@ -648,6 +701,9 @@
       <c r="K4" s="2">
         <v>6.0332999999999998E-2</v>
       </c>
+      <c r="L4" s="5">
+        <v>1.3305684720000001E-2</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2">
@@ -659,8 +715,11 @@
       <c r="Q4" s="2">
         <v>6.7900000000000002E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="27">
+      <c r="R4" s="5">
+        <v>6.5539679399999997E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="27">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2">
@@ -672,6 +731,9 @@
       <c r="E5" s="2">
         <v>4.6561999999999999E-2</v>
       </c>
+      <c r="F5" s="2">
+        <v>6.1782782400000001E-4</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2">
@@ -683,68 +745,74 @@
       <c r="K5" s="2">
         <v>6.7913000000000001E-2</v>
       </c>
+      <c r="L5" s="5">
+        <v>1.759780256E-2</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2">
         <v>80</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="4">
         <v>1000</v>
       </c>
       <c r="Q5" s="2">
         <v>7.5325000000000003E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="27">
+      <c r="R5" s="5">
+        <v>8.6690130599999995E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="27">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:17" ht="27">
+    <row r="7" spans="1:18" ht="27">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:17" ht="27">
+    <row r="8" spans="1:18" ht="27">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:17" ht="27">
+    <row r="9" spans="1:18" ht="27">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:17" ht="27">
+    <row r="10" spans="1:18" ht="27">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:17" ht="27">
+    <row r="11" spans="1:18" ht="27">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:17" ht="27">
+    <row r="12" spans="1:18" ht="27">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:17" ht="27">
+    <row r="13" spans="1:18" ht="27">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -761,7 +829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A582B6-05DA-2E4D-AC13-60D03500F141}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -772,22 +840,22 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3">
         <v>0.31884099999999999</v>
@@ -795,10 +863,10 @@
     </row>
     <row r="3" spans="1:5" ht="21">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3">
         <v>0.56376800000000005</v>
@@ -806,10 +874,10 @@
     </row>
     <row r="4" spans="1:5" ht="21">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3">
         <v>0.88840600000000003</v>

--- a/實驗.xlsx
+++ b/實驗.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maihongwei/Documents/github/network-scheduling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946D3EB9-DBED-2F4E-802E-7C50B7CC6088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4582791-5A98-2249-8402-D4F1771194F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{454B99EB-65BE-EA45-BEBB-7FA253E31659}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{454B99EB-65BE-EA45-BEBB-7FA253E31659}"/>
   </bookViews>
   <sheets>
     <sheet name="結果" sheetId="1" r:id="rId1"/>
     <sheet name="參數" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">結果!$E$2:$E$8</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">結果!$L$2:$L$8</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">結果!$Q$2:$Q$8</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">結果!$S$2:$S$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>UE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,7 +87,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>thoughput</t>
+    <t>data_rate(Kbps)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg. thoughput</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system throughput(Mbps)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -89,7 +103,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,14 +126,6 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -125,14 +134,6 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri Bold"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,23 +158,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -191,6 +189,2174 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Heiti TC Medium" pitchFamily="2" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en"/>
+              <a:t>drap_rate</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Heiti TC Medium" pitchFamily="2" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>QCI 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>結果!$Q$2:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>結果!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0400000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4520000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5990000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0150000000000004E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A39-9D45-8D32-C8CAE40A7914}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>QCI 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>結果!$Q$2:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>結果!$L$2:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8200000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3303999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8868E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8096999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9258000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1092999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0A39-9D45-8D32-C8CAE40A7914}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>QCI 6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>結果!$Q$2:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>結果!$S$2:$S$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.7484E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9062000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9177000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9360000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2058999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7613000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0666000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0A39-9D45-8D32-C8CAE40A7914}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="28181903"/>
+        <c:axId val="28278751"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="28181903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="Heiti TC Medium" pitchFamily="2" charset="-128"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>nomber of UEs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="Heiti TC Medium" pitchFamily="2" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Heiti TC Medium" pitchFamily="2" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="28278751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="28278751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="Heiti TC Medium" pitchFamily="2" charset="-128"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>drop_rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="Heiti TC Medium" pitchFamily="2" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Heiti TC Medium" pitchFamily="2" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="28181903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Heiti TC Medium" pitchFamily="2" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" b="0" i="0">
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="Heiti TC Medium" pitchFamily="2" charset="-128"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>QCI 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>結果!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>結果!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.2997233333333291</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2982735999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2947710000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2538058888888877</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2588848181818193</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2658806153846154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2291456666666676</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E76-6149-93FB-76509602B0EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="29923807"/>
+        <c:axId val="58220975"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="29923807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="58220975"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="58220975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0_ " sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="29923807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD5AB35B-7E61-264B-83EB-6B6F03D47EB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1784350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>330200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABA89A6E-8A06-1A4C-9AAA-2D46AA02AD4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -490,338 +2656,499 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1A233F-ECCA-0841-A988-9E9C3C077666}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="27"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="T1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C2" s="1">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="F2" s="4">
+        <v>8.2997233333333291</v>
+      </c>
+      <c r="G2" s="4">
+        <f>F2*C2/1024</f>
+        <v>0.24315595703124987</v>
+      </c>
+      <c r="H2" s="1">
         <v>2</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="I2" s="1">
+        <v>242</v>
+      </c>
+      <c r="J2" s="1">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L2" s="1">
         <v>0</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>14</v>
+      <c r="M2" s="1">
+        <v>241.94111333333336</v>
+      </c>
+      <c r="N2" s="1">
+        <f>M2*J2/1024</f>
+        <v>7.088118554687501</v>
+      </c>
+      <c r="O2" s="1">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>30</v>
+      </c>
+      <c r="R2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="S2" s="1">
+        <v>5.7484E-2</v>
+      </c>
+      <c r="T2" s="1">
+        <v>11.310192000000001</v>
+      </c>
+      <c r="U2" s="1">
+        <f>T2*Q2/1024</f>
+        <v>0.33135328125000002</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="27">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E2" s="2">
+    <row r="3" spans="1:21">
+      <c r="C3" s="1">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="2">
-        <v>1.6200000000000001E-4</v>
-      </c>
-      <c r="G2" s="2">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="I2" s="2">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5">
-        <v>4.7199999999999994E-3</v>
-      </c>
-      <c r="M2" s="2">
-        <v>6</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0.11719</v>
-      </c>
-      <c r="O2" s="2">
-        <v>20</v>
-      </c>
-      <c r="P2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="5">
-        <v>2.3438000000000001E-3</v>
+      <c r="F3" s="4">
+        <v>8.2982735999999999</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G8" si="0">F3*C3/1024</f>
+        <v>0.405189140625</v>
+      </c>
+      <c r="J3" s="1">
+        <v>50</v>
+      </c>
+      <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1.8200000000000001E-4</v>
+      </c>
+      <c r="M3" s="1">
+        <v>241.54939599999997</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N8" si="1">M3*J3/1024</f>
+        <v>11.794404101562499</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>50</v>
+      </c>
+      <c r="R3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="S3" s="1">
+        <v>5.9062000000000003E-2</v>
+      </c>
+      <c r="T3" s="1">
+        <v>11.291255999999999</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3:U8" si="2">T3*Q3/1024</f>
+        <v>0.55133085937499993</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="27">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2">
-        <v>40</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2.2575000000000001E-2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3.166857E-4</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2">
-        <v>40</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K3" s="2">
-        <v>2.2624999999999999E-2</v>
-      </c>
-      <c r="L3" s="5">
-        <v>9.2264199999999991E-3</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2">
-        <v>1.1718999999999999E-4</v>
-      </c>
-      <c r="O3" s="2">
-        <v>40</v>
-      </c>
-      <c r="P3" s="2">
-        <v>1000</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>6.0267000000000001E-2</v>
-      </c>
-      <c r="R3" s="5">
-        <v>4.4050924108000001E-3</v>
+    <row r="4" spans="1:21">
+      <c r="C4" s="1">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F4" s="4">
+        <v>8.2947710000000008</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.56702536132812509</v>
+      </c>
+      <c r="J4" s="1">
+        <v>70</v>
+      </c>
+      <c r="K4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2.3303999999999998E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>235.9551857142857</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="1"/>
+        <v>16.129749023437498</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>70</v>
+      </c>
+      <c r="R4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="S4" s="1">
+        <v>6.9177000000000002E-2</v>
+      </c>
+      <c r="T4" s="1">
+        <v>11.169875999999997</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.76356574218749973</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="27">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2">
-        <v>60</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3.015E-2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>4.7134710000000003E-4</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2">
-        <v>60</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K4" s="2">
-        <v>6.0332999999999998E-2</v>
-      </c>
-      <c r="L4" s="5">
-        <v>1.3305684720000001E-2</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2">
-        <v>60</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>6.7900000000000002E-2</v>
-      </c>
-      <c r="R4" s="5">
-        <v>6.5539679399999997E-3</v>
+    <row r="5" spans="1:21">
+      <c r="C5" s="1">
+        <v>90</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.0400000000000002E-3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>8.2538058888888877</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.7254321582031249</v>
+      </c>
+      <c r="J5" s="1">
+        <v>90</v>
+      </c>
+      <c r="K5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3.8868E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>232.59394399999996</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="1"/>
+        <v>20.442827109374996</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>90</v>
+      </c>
+      <c r="R5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="S5" s="1">
+        <v>6.9360000000000005E-2</v>
+      </c>
+      <c r="T5" s="1">
+        <v>11.167680000000001</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98153437500000007</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="27">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2">
-        <v>80</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4.6561999999999999E-2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>6.1782782400000001E-4</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2">
-        <v>80</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K5" s="2">
-        <v>6.7913000000000001E-2</v>
-      </c>
-      <c r="L5" s="5">
-        <v>1.759780256E-2</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2">
-        <v>80</v>
-      </c>
-      <c r="P5" s="4">
-        <v>1000</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>7.5325000000000003E-2</v>
-      </c>
-      <c r="R5" s="5">
-        <v>8.6690130599999995E-3</v>
+    <row r="6" spans="1:21">
+      <c r="C6" s="1">
+        <v>110</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3.4520000000000002E-3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>8.2588848181818193</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88718489257812516</v>
+      </c>
+      <c r="J6" s="1">
+        <v>110</v>
+      </c>
+      <c r="K6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>3.8096999999999999E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>232.78052600000001</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="1"/>
+        <v>25.00572056640625</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>110</v>
+      </c>
+      <c r="R6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="S6" s="1">
+        <v>7.2058999999999998E-2</v>
+      </c>
+      <c r="T6" s="1">
+        <v>11.135292</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1961739453125</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="27">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+    <row r="7" spans="1:21">
+      <c r="C7" s="1">
+        <v>130</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.5990000000000002E-3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>8.2658806153846154</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.049379375</v>
+      </c>
+      <c r="J7" s="1">
+        <v>130</v>
+      </c>
+      <c r="K7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>3.9258000000000001E-2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>232.49956400000002</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="1"/>
+        <v>29.516546210937502</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>130</v>
+      </c>
+      <c r="R7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="S7" s="1">
+        <v>7.7613000000000001E-2</v>
+      </c>
+      <c r="T7" s="1">
+        <v>11.068643999999999</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4051989453124998</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" ht="27">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+    <row r="8" spans="1:21">
+      <c r="C8" s="1">
+        <v>150</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7.0150000000000004E-3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>8.2291456666666676</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2054412597656252</v>
+      </c>
+      <c r="J8" s="1">
+        <v>150</v>
+      </c>
+      <c r="K8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4.1092999999999998E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>232.05549400000001</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="1"/>
+        <v>33.992504003906248</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>150</v>
+      </c>
+      <c r="R8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="S8" s="1">
+        <v>8.0666000000000002E-2</v>
+      </c>
+      <c r="T8" s="1">
+        <v>11.032007999999999</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6160167968749999</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" ht="27">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+    <row r="11" spans="1:21">
+      <c r="E11" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="27">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+    <row r="12" spans="1:21">
+      <c r="E12" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="27">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+    <row r="13" spans="1:21">
+      <c r="E13" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="27">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+    <row r="14" spans="1:21">
+      <c r="E14" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="27">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+    <row r="15" spans="1:21">
+      <c r="E15" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="27">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+    <row r="16" spans="1:21">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="4"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W2:W8">
+    <sortCondition ref="W2:W8"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -839,11 +3166,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E1" t="s">
@@ -851,35 +3178,35 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="21">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.31884099999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="21">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.56376800000000005</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.88840600000000003</v>
       </c>
     </row>

--- a/實驗.xlsx
+++ b/實驗.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maihongwei/Documents/github/network-scheduling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4582791-5A98-2249-8402-D4F1771194F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D447C18A-22FC-6F43-A904-67C7B2A1BC2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{454B99EB-65BE-EA45-BEBB-7FA253E31659}"/>
   </bookViews>
@@ -16,12 +16,6 @@
     <sheet name="結果" sheetId="1" r:id="rId1"/>
     <sheet name="參數" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">結果!$E$2:$E$8</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">結果!$L$2:$L$8</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">結果!$Q$2:$Q$8</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">結果!$S$2:$S$8</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>UE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +92,30 @@
     <t>system throughput(Mbps)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>64QAM: 75.376 Mbps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16QAM: 30.576 Mbps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QPSK: 15.84 Mbps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX: 1.23Mbps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX: 35Mbps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX: 1.75Mbps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -106,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -135,6 +153,12 @@
       <color theme="1"/>
       <name val="Calibri Bold"/>
     </font>
+    <font>
+      <sz val="19"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -158,7 +182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -172,6 +196,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2322,16 +2349,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1784350</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>330200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2658,8 +2685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1A233F-ECCA-0841-A988-9E9C3C077666}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27"/>
@@ -2758,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.4</v>
       </c>
       <c r="C2" s="1">
         <v>30</v>
@@ -2872,6 +2899,9 @@
       </c>
     </row>
     <row r="4" spans="1:21">
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C4" s="1">
         <v>70</v>
       </c>
@@ -2888,6 +2918,9 @@
         <f t="shared" si="0"/>
         <v>0.56702536132812509</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="J4" s="1">
         <v>70</v>
       </c>
@@ -2903,6 +2936,9 @@
       <c r="N4" s="1">
         <f t="shared" si="1"/>
         <v>16.129749023437498</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="Q4" s="1">
         <v>70</v>
@@ -3121,11 +3157,22 @@
         <v>1.6160167968749999</v>
       </c>
     </row>
+    <row r="10" spans="1:21">
+      <c r="G10" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="11" spans="1:21">
       <c r="E11" s="4"/>
+      <c r="G11" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:21">
       <c r="E12" s="4"/>
+      <c r="G12" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:21">
       <c r="E13" s="4"/>
